--- a/VAS data.xlsx
+++ b/VAS data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Consulting META/Meta-Analysis-Gintas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65A86E8-6E59-0B41-ABC1-7D28353FA415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35634ABA-477E-A04A-AF27-B76BC85FED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{A8AE2FDB-5C7E-5B40-8D02-2462CE361221}"/>
   </bookViews>
@@ -73,16 +73,16 @@
     <t>Eliapixant</t>
   </si>
   <si>
-    <t>Mean Treatment (outcome 2: VAS) baseline</t>
-  </si>
-  <si>
     <t>Mean T (SD)</t>
   </si>
   <si>
-    <t>Mean Control (outcome 2: VAS) baseline</t>
-  </si>
-  <si>
     <t>Mean C (SD)</t>
+  </si>
+  <si>
+    <t>Mean Treatment outcome 2: VAS result</t>
+  </si>
+  <si>
+    <t>Mean Control outcome 2: VAS result</t>
   </si>
 </sst>
 </file>
@@ -461,13 +461,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB95801-E30C-6C40-8A50-06DCA9FAED68}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11"/>
+    <col min="7" max="7" width="36.5" customWidth="1"/>
+    <col min="8" max="8" width="11"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -483,16 +489,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -509,16 +515,16 @@
         <v>15</v>
       </c>
       <c r="E2" s="4">
-        <v>57</v>
+        <v>-12</v>
       </c>
       <c r="F2" s="4">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="H2" s="4">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -535,16 +541,16 @@
         <v>30</v>
       </c>
       <c r="E3" s="4">
-        <v>43.6</v>
+        <v>-11.1</v>
       </c>
       <c r="F3" s="4">
-        <v>29.6</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4">
-        <v>44.2</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="4">
-        <v>21.3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -561,16 +567,16 @@
         <v>63</v>
       </c>
       <c r="E4" s="4">
-        <v>57.9</v>
+        <v>-30</v>
       </c>
       <c r="F4" s="4">
-        <v>19.7</v>
+        <v>22.39</v>
       </c>
       <c r="G4" s="4">
-        <v>57.4</v>
+        <v>-18</v>
       </c>
       <c r="H4" s="4">
-        <v>23.1</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -587,17 +593,41 @@
         <v>20</v>
       </c>
       <c r="E5" s="4">
-        <v>70.599999999999994</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="F5" s="4">
-        <v>17.3</v>
+        <v>23.3</v>
       </c>
       <c r="G5" s="4">
-        <v>70.599999999999994</v>
+        <v>-4.2</v>
       </c>
       <c r="H5" s="4">
-        <v>17.3</v>
-      </c>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
